--- a/medicine/Psychotrope/Samuel_Adams_(bière)/Samuel_Adams_(bière).xlsx
+++ b/medicine/Psychotrope/Samuel_Adams_(bière)/Samuel_Adams_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Samuel_Adams_(bi%C3%A8re)</t>
+          <t>Samuel_Adams_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Samuel Adams est une marque de bière brassée par la Boston Beer Company, nommée en l'honneur du révolutionnaire américain du même nom.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Samuel_Adams_(bi%C3%A8re)</t>
+          <t>Samuel_Adams_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière Samuel Adams n'existe à ses débuts que sous la forme d'une lager, la Samuel Adams Boston Lager. Ses origines remontent à 1860, lorsque Louis Koch met au point sa recette à Saint Louis, dans le Missouri. La Louis Koch Lager est vendue sous ce nom jusqu'à la Prohibition, et à nouveau jusqu'au début des années 50.
 En 1985, Jim Koch, l'arrière-petit-fils de Louis Koch, décide de reformuler la recette avec l'aide de Josepth Owades, l'inventeur de la bière légère dans les années 70. En avril de cette année-là, il relance la bière sous la marque Samuel Adams, le jour de la première bataille de la révolution américaine, Patriot's Day. Trois mois plus tard, la bière obtient le premier prix au Great American Beer Festival, parmi 93 bières régionales et nationales. La publicité qui en découle fait grimper la demande et bientôt la Boston Beer Company passe du statut de microbrasserie avec 500 fûts (sa production à la fin de 1985) à celui de plus gros brasseur de bière artisanale avec 36 000 fûts par an en 1988, l'année où la société établit sa propre brasserie à Boston.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samuel_Adams_(bi%C3%A8re)</t>
+          <t>Samuel_Adams_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,31 +558,170 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 2005, Boston Beer a vendu 18 bières différentes sous la marque Samuel Adams, et 19 en 2006. Le produit phare reste la lager, également déclinée en version légère (Sam Adams Light). La brasserie vend également une série de bières spécialisées sous le label Brewmaster's Collection, des bières de saison et depuis les années 90 des bières spécialités sous la désignation Extreme Beers, notamment la Samuel Adams Utopias, une bière à environ 27 % d'alcool fermentée et mise dans des fûts de bourbon, porto, scotch et cognac jusqu'à 10 mois selon un procédé proche de celui des bières doubles ou triples (cette dernière n'est d'ailleurs pas vendue dans certains États du fait de son fort degré d'alcool).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005, Boston Beer a vendu 18 bières différentes sous la marque Samuel Adams, et 19 en 2006. Le produit phare reste la lager, également déclinée en version légère (Sam Adams Light). La brasserie vend également une série de bières spécialisées sous le label Brewmaster's Collection, des bières de saison et depuis les années 90 des bières spécialités sous la désignation Extreme Beers, notamment la Samuel Adams Utopias, une bière à environ 27 % d'alcool fermentée et mise dans des fûts de bourbon, porto, scotch et cognac jusqu'à 10 mois selon un procédé proche de celui des bières doubles ou triples (cette dernière n'est d'ailleurs pas vendue dans certains États du fait de son fort degré d'alcool).
 Samuel Adams a été récompensé à plusieurs reprises par Monde Selection pour la qualité de ses produits.
-Produits phares
-Samuel Adams Boston Lager
-Sam Adams Light
-Brewmaster's Collection
-Samuel Adams Cherry Wheat
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Samuel_Adams_(bière)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samuel_Adams_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Produits phares</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Samuel Adams Boston Lager
+Sam Adams Light</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Samuel_Adams_(bière)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samuel_Adams_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Brewmaster's Collection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Samuel Adams Cherry Wheat
 Samuel Adams Cream Stout
 Samuel Adams Hefeweizen
 Samuel Adams Pale Ale
 Samuel Adams Scotch Ale
 Samuel Adams Black Lager
-Samuel Adams Brown Ale
-Bières de saison
-Samuel Adams Double Bock
+Samuel Adams Brown Ale</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Samuel_Adams_(bière)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samuel_Adams_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bières de saison</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Samuel Adams Double Bock
 Samuel Adams Summer Ale
 Samuel Adams Octoberfest
 Samuel Adams Winter Lager
 Samuel Adams Old Fezziwig Ale
 Samuel Adams Cranberry Lambic
-Samuel Adams Holiday Porter
-Extreme Beers
-Samuel Adams Utopias
+Samuel Adams Holiday Porter</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Samuel_Adams_(bière)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Samuel_Adams_(bi%C3%A8re)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Les bières</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Extreme Beers</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Samuel Adams Utopias
 Samuel Adams Chocolate Bock
 Samuel Adams Millenium
 Samuel Adams Triple Bock</t>
